--- a/Addition_Unit/Documentation/ProjectLog-G12-5814-350-1257.xlsx
+++ b/Addition_Unit/Documentation/ProjectLog-G12-5814-350-1257.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/edafb57772ce9388/Desktop/SFU/2025/FALL 2025/ENSC350/ENSC-350/DP1-G12-350-1257/submission/DP1/Documentation/ActivityLogs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/edafb57772ce9388/Desktop/SFU/2025/FALL 2025/ENSC350/Github/ENSC-350/DP2/submissions/DP2.1/DP2-G12-350-1257/DP2/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="8_{9F9BD470-D14E-48DE-AD90-2993DBB3CE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5F7666E-34AB-4F3A-8FEC-FCB6E85CF6EF}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{4D841EB5-DA9E-444C-B93D-022240CF7637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{625AF2C6-AC0D-4FED-8C63-C0E0BFFDC005}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="uphip+fyQmgTbQWVslgKndYGTCUT2nMCnU8pTyuiPxh9t3MkaNQeLeeV1eDZUH8uYM8JtsIZJzZApwnnbRUEcA==" workbookSaltValue="PVE5+bPUyqyV9jE5EaqSxw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="12280" yWindow="2450" windowWidth="23890" windowHeight="15370" activeTab="2" xr2:uid="{5C666647-60C4-4C14-A5E1-8900F85EBB7F}"/>
+    <workbookView xWindow="12280" yWindow="2450" windowWidth="23890" windowHeight="15370" activeTab="4" xr2:uid="{5C666647-60C4-4C14-A5E1-8900F85EBB7F}"/>
   </bookViews>
   <sheets>
     <sheet name="DP1.0" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="69">
   <si>
     <t>last  4 digits</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>Duration</t>
-  </si>
-  <si>
-    <t>Gxx</t>
   </si>
   <si>
     <r>
@@ -518,6 +515,51 @@
   </si>
   <si>
     <t>finished the summary document (added cost analysis summary), and final look at everything, and organized the directory</t>
+  </si>
+  <si>
+    <t>25/10/2025</t>
+  </si>
+  <si>
+    <t>redid calculations based on post fitting results for the 2 and 4 bit cases, rewrote design candidate section, and adjusted the flowchart in procedure</t>
+  </si>
+  <si>
+    <t>26/10/2025</t>
+  </si>
+  <si>
+    <t>added annotations to images, final read through and touches</t>
+  </si>
+  <si>
+    <t>30/10/2025</t>
+  </si>
+  <si>
+    <t>Created an outline for the project report and the summary report</t>
+  </si>
+  <si>
+    <t>helped write and debug and test a 4 bit look ahead carry network component</t>
+  </si>
+  <si>
+    <t>finished brent kung adder</t>
+  </si>
+  <si>
+    <t>worked on lws5 to learn about timing simulations</t>
+  </si>
+  <si>
+    <t>implemented a carry look ahead tree architecture for the adder</t>
+  </si>
+  <si>
+    <t>got all candidates quartus summaries and .vho and .sdo files</t>
+  </si>
+  <si>
+    <t>helped writing testbench and timing simulation, wrote all .do scripts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">improved .do files and transcripts and compiled a kept the quartus synthesis for the last candidate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">did LACTA and BKA cost and timing calculations, found delays for cyclone LES, drew brent-kung adder on the report, updated directory in the appendix, made experimental procedures and testbench procedure flowcharts </t>
+  </si>
+  <si>
+    <t>did cost and timing estimations for CBA, created images for the CBA and LACTA, wrote blurbs for intro and experimental procedure, added annotated waveform to testbench section, completed timing analysis section, found delays for an ALM, updated the references, wrote result analysis section of Summary report</t>
   </si>
 </sst>
 </file>
@@ -1547,7 +1589,7 @@
   <dimension ref="A1:I783"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1565,7 +1607,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="94.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
@@ -1580,12 +1622,12 @@
         <v>6</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="52"/>
       <c r="D2" s="53"/>
       <c r="E2" s="45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="46"/>
       <c r="G2" s="46"/>
@@ -1608,7 +1650,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="43"/>
       <c r="D4" s="44"/>
@@ -1618,7 +1660,7 @@
     </row>
     <row r="5" spans="1:9" ht="59.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="42">
         <v>1</v>
@@ -1649,7 +1691,7 @@
         <v>7</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>8</v>
@@ -1661,17 +1703,17 @@
         <v>5814</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="20">
         <v>0.76041666666666663</v>
       </c>
       <c r="F7" s="33"/>
       <c r="G7" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7" s="11" t="e">
         <f t="shared" ref="H7" si="0">(E7-D7)*24</f>
@@ -1685,7 +1727,7 @@
         <v>5814</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="19">
         <v>0.55208333333333337</v>
@@ -1695,7 +1737,7 @@
       </c>
       <c r="F8" s="34"/>
       <c r="G8" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" s="26">
         <f>(E8-D8)*24</f>
@@ -1708,7 +1750,7 @@
         <v>5814</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="19">
         <v>0.58333333333333337</v>
@@ -1718,7 +1760,7 @@
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H9" s="26">
         <f t="shared" ref="H9:H72" si="1">(E9-D9)*24</f>
@@ -3388,7 +3430,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="94.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
@@ -3403,12 +3445,12 @@
         <v>6</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="52"/>
       <c r="D2" s="53"/>
       <c r="E2" s="45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="46"/>
       <c r="G2" s="46"/>
@@ -3431,7 +3473,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="43"/>
       <c r="D4" s="44"/>
@@ -3441,7 +3483,7 @@
     </row>
     <row r="5" spans="1:9" ht="59.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="42">
         <v>0.45</v>
@@ -3472,7 +3514,7 @@
         <v>7</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>8</v>
@@ -3484,7 +3526,7 @@
         <v>5814</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="19">
         <v>0.64583333333333337</v>
@@ -3494,7 +3536,7 @@
       </c>
       <c r="F7" s="33"/>
       <c r="G7" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" s="11">
         <f t="shared" ref="H7" si="0">(E7-D7)*24</f>
@@ -3508,7 +3550,7 @@
         <v>5814</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="19">
         <v>0.6875</v>
@@ -3518,7 +3560,7 @@
       </c>
       <c r="F8" s="34"/>
       <c r="G8" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8" s="26">
         <f>(E8-D8)*24</f>
@@ -3531,7 +3573,7 @@
         <v>5814</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="19">
         <v>0.72916666666666663</v>
@@ -3541,7 +3583,7 @@
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9" s="26">
         <f t="shared" ref="H9:H72" si="1">(E9-D9)*24</f>
@@ -3554,7 +3596,7 @@
         <v>5814</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="19">
         <v>0.73958333333333337</v>
@@ -3564,7 +3606,7 @@
       </c>
       <c r="F10" s="34"/>
       <c r="G10" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10" s="26">
         <f t="shared" si="1"/>
@@ -3577,7 +3619,7 @@
         <v>5814</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="19">
         <v>0.78125</v>
@@ -3587,7 +3629,7 @@
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" s="26">
         <f t="shared" si="1"/>
@@ -3600,7 +3642,7 @@
         <v>5814</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="19">
         <v>0.58333333333333337</v>
@@ -3610,7 +3652,7 @@
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H12" s="26">
         <f t="shared" si="1"/>
@@ -3623,7 +3665,7 @@
         <v>5814</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="19">
         <v>0.71875</v>
@@ -3633,7 +3675,7 @@
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H13" s="26">
         <f t="shared" si="1"/>
@@ -3646,7 +3688,7 @@
         <v>5814</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="19">
         <v>0.77083333333333337</v>
@@ -3656,7 +3698,7 @@
       </c>
       <c r="F14" s="34"/>
       <c r="G14" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H14" s="26">
         <f t="shared" si="1"/>
@@ -3669,7 +3711,7 @@
         <v>5814</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="19">
         <v>0.65625</v>
@@ -3679,7 +3721,7 @@
       </c>
       <c r="F15" s="34"/>
       <c r="G15" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H15" s="26">
         <f t="shared" si="1"/>
@@ -3692,7 +3734,7 @@
         <v>5814</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="19">
         <v>0.70833333333333337</v>
@@ -3702,7 +3744,7 @@
       </c>
       <c r="F16" s="34"/>
       <c r="G16" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H16" s="26">
         <f t="shared" si="1"/>
@@ -3715,7 +3757,7 @@
         <v>5814</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="19">
         <v>0.79166666666666663</v>
@@ -3725,7 +3767,7 @@
       </c>
       <c r="F17" s="34"/>
       <c r="G17" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H17" s="26">
         <f t="shared" si="1"/>
@@ -5273,8 +5315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFECA045-CD49-49CC-91F4-D8E7747F6F1D}">
   <dimension ref="A1:I783"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5292,7 +5334,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="94.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
@@ -5307,12 +5349,12 @@
         <v>6</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="52"/>
       <c r="D2" s="53"/>
       <c r="E2" s="45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="46"/>
       <c r="G2" s="46"/>
@@ -5335,7 +5377,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="43"/>
       <c r="D4" s="44"/>
@@ -5345,10 +5387,10 @@
     </row>
     <row r="5" spans="1:9" ht="59.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="57" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B5" s="42">
+        <v>0.5</v>
       </c>
       <c r="C5" s="43"/>
       <c r="D5" s="44"/>
@@ -5376,7 +5418,7 @@
         <v>7</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>8</v>
@@ -5388,7 +5430,7 @@
         <v>5814</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="19">
         <v>0.76041666666666663</v>
@@ -5398,7 +5440,7 @@
       </c>
       <c r="F7" s="33"/>
       <c r="G7" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H7" s="11">
         <f t="shared" ref="H7" si="0">(E7-D7)*24</f>
@@ -5412,7 +5454,7 @@
         <v>5814</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="19">
         <v>0.48958333333333331</v>
@@ -5422,7 +5464,7 @@
       </c>
       <c r="F8" s="34"/>
       <c r="G8" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="26">
         <f>(E8-D8)*24</f>
@@ -5435,7 +5477,7 @@
         <v>5814</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="19">
         <v>0.6875</v>
@@ -5445,7 +5487,7 @@
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H9" s="26">
         <f t="shared" ref="H9:H72" si="1">(E9-D9)*24</f>
@@ -5458,7 +5500,7 @@
         <v>5814</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="19">
         <v>0.54166666666666663</v>
@@ -5468,7 +5510,7 @@
       </c>
       <c r="F10" s="34"/>
       <c r="G10" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H10" s="26">
         <f t="shared" si="1"/>
@@ -5481,7 +5523,7 @@
         <v>5814</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="19">
         <v>0.64583333333333337</v>
@@ -5491,7 +5533,7 @@
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H11" s="26">
         <f t="shared" si="1"/>
@@ -5500,28 +5542,48 @@
     </row>
     <row r="12" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="31"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="22"/>
+      <c r="B12" s="13">
+        <v>5814</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="19">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E12" s="22">
+        <v>0.78125</v>
+      </c>
       <c r="F12" s="34"/>
-      <c r="G12" s="16"/>
+      <c r="G12" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="H12" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.5000000000000009</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="31"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="22"/>
+      <c r="B13" s="13">
+        <v>5814</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="19">
+        <v>0.59375</v>
+      </c>
+      <c r="E13" s="22">
+        <v>0.6875</v>
+      </c>
       <c r="F13" s="34"/>
-      <c r="G13" s="16"/>
+      <c r="G13" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="H13" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
@@ -6386,7 +6448,7 @@
       <c r="F80" s="29"/>
       <c r="H80" s="28">
         <f>SUM(H7:H79)</f>
-        <v>7.2500000000000018</v>
+        <v>13.000000000000004</v>
       </c>
     </row>
     <row r="81" ht="24.9" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7117,7 +7179,7 @@
   <dimension ref="A1:I783"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7135,7 +7197,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="94.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
@@ -7149,11 +7211,13 @@
       <c r="A2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="51" t="s">
+        <v>19</v>
+      </c>
       <c r="C2" s="52"/>
       <c r="D2" s="53"/>
       <c r="E2" s="45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" s="46"/>
       <c r="G2" s="46"/>
@@ -7162,7 +7226,9 @@
       <c r="A3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="54">
+        <v>301455814</v>
+      </c>
       <c r="C3" s="55"/>
       <c r="D3" s="56"/>
       <c r="E3" s="47"/>
@@ -7174,7 +7240,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C4" s="43"/>
       <c r="D4" s="44"/>
@@ -7184,10 +7250,10 @@
     </row>
     <row r="5" spans="1:9" ht="59.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="57" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B5" s="42">
+        <v>1</v>
       </c>
       <c r="C5" s="43"/>
       <c r="D5" s="44"/>
@@ -7215,7 +7281,7 @@
         <v>7</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>8</v>
@@ -7223,15 +7289,25 @@
     </row>
     <row r="7" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="30"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
+      <c r="B7" s="12">
+        <v>5814</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0.625</v>
+      </c>
+      <c r="E7" s="20">
+        <v>0.70138888888888884</v>
+      </c>
       <c r="F7" s="33"/>
-      <c r="G7" s="15"/>
+      <c r="G7" s="15" t="s">
+        <v>59</v>
+      </c>
       <c r="H7" s="11">
         <f t="shared" ref="H7" si="0">(E7-D7)*24</f>
-        <v>0</v>
+        <v>1.8333333333333321</v>
       </c>
       <c r="I7" s="9"/>
     </row>
@@ -8175,7 +8251,7 @@
       <c r="F80" s="29"/>
       <c r="H80" s="28">
         <f>SUM(H7:H79)</f>
-        <v>0</v>
+        <v>1.8333333333333321</v>
       </c>
     </row>
     <row r="81" ht="24.9" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8905,8 +8981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAC5635-BB81-4716-B442-28EF74567593}">
   <dimension ref="A1:I783"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="E5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8924,7 +9000,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="94.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
@@ -8938,11 +9014,13 @@
       <c r="A2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="51" t="s">
+        <v>19</v>
+      </c>
       <c r="C2" s="52"/>
       <c r="D2" s="53"/>
       <c r="E2" s="45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="46"/>
       <c r="G2" s="46"/>
@@ -8951,7 +9029,9 @@
       <c r="A3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="54">
+        <v>301455814</v>
+      </c>
       <c r="C3" s="55"/>
       <c r="D3" s="56"/>
       <c r="E3" s="47"/>
@@ -8963,7 +9043,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C4" s="43"/>
       <c r="D4" s="44"/>
@@ -8973,10 +9053,10 @@
     </row>
     <row r="5" spans="1:9" ht="59.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="57" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B5" s="42">
+        <v>0.5</v>
       </c>
       <c r="C5" s="43"/>
       <c r="D5" s="44"/>
@@ -9004,7 +9084,7 @@
         <v>7</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>8</v>
@@ -9012,133 +9092,233 @@
     </row>
     <row r="7" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="30"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
+      <c r="B7" s="12">
+        <v>5814</v>
+      </c>
+      <c r="C7" s="18">
+        <v>45960</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E7" s="20">
+        <v>0.8125</v>
+      </c>
       <c r="F7" s="33"/>
-      <c r="G7" s="15"/>
+      <c r="G7" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="H7" s="11">
         <f t="shared" ref="H7" si="0">(E7-D7)*24</f>
-        <v>0</v>
+        <v>2.4999999999999991</v>
       </c>
       <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="31"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="22"/>
+      <c r="B8" s="13">
+        <v>5814</v>
+      </c>
+      <c r="C8" s="21">
+        <v>45961</v>
+      </c>
+      <c r="D8" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F8" s="34"/>
-      <c r="G8" s="16"/>
+      <c r="G8" s="16" t="s">
+        <v>63</v>
+      </c>
       <c r="H8" s="26">
         <f>(E8-D8)*24</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="31"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="22"/>
+      <c r="B9" s="13">
+        <v>5814</v>
+      </c>
+      <c r="C9" s="21">
+        <v>45965</v>
+      </c>
+      <c r="D9" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E9" s="22">
+        <v>0.8125</v>
+      </c>
       <c r="F9" s="34"/>
-      <c r="G9" s="16"/>
+      <c r="G9" s="16" t="s">
+        <v>61</v>
+      </c>
       <c r="H9" s="26">
-        <f t="shared" ref="H9:H72" si="1">(E9-D9)*24</f>
-        <v>0</v>
+        <f>(E9-D9)*24</f>
+        <v>3.5000000000000009</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="31"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="22"/>
+      <c r="B10" s="13">
+        <v>5814</v>
+      </c>
+      <c r="C10" s="21">
+        <v>45972</v>
+      </c>
+      <c r="D10" s="19">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E10" s="22">
+        <v>0.75</v>
+      </c>
       <c r="F10" s="34"/>
-      <c r="G10" s="16"/>
+      <c r="G10" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="H10" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>(E10-D10)*24</f>
+        <v>2.0000000000000009</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="31"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="22"/>
+      <c r="B11" s="13">
+        <v>5814</v>
+      </c>
+      <c r="C11" s="21">
+        <v>45973</v>
+      </c>
+      <c r="D11" s="19">
+        <v>0.625</v>
+      </c>
+      <c r="E11" s="22">
+        <v>0.6875</v>
+      </c>
       <c r="F11" s="34"/>
-      <c r="G11" s="16"/>
+      <c r="G11" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="H11" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>(E11-D11)*24</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="31"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="22"/>
+      <c r="B12" s="13">
+        <v>5814</v>
+      </c>
+      <c r="C12" s="21">
+        <v>45973</v>
+      </c>
+      <c r="D12" s="19">
+        <v>0.6875</v>
+      </c>
+      <c r="E12" s="22">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="F12" s="34"/>
-      <c r="G12" s="16"/>
+      <c r="G12" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="H12" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="H12:H72" si="1">(E12-D12)*24</f>
+        <v>0.99999999999999911</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="31"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="22"/>
+      <c r="B13" s="13">
+        <v>5814</v>
+      </c>
+      <c r="C13" s="21">
+        <v>45973</v>
+      </c>
+      <c r="D13" s="19">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E13" s="22">
+        <v>0.8125</v>
+      </c>
       <c r="F13" s="34"/>
-      <c r="G13" s="16"/>
+      <c r="G13" s="16" t="s">
+        <v>65</v>
+      </c>
       <c r="H13" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0000000000000009</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="31"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="22"/>
+      <c r="B14" s="13">
+        <v>5814</v>
+      </c>
+      <c r="C14" s="21">
+        <v>45974</v>
+      </c>
+      <c r="D14" s="19">
+        <v>0.625</v>
+      </c>
+      <c r="E14" s="22">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F14" s="34"/>
-      <c r="G14" s="16"/>
+      <c r="G14" s="16" t="s">
+        <v>66</v>
+      </c>
       <c r="H14" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.9999999999999991</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="31"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="22"/>
+      <c r="B15" s="13">
+        <v>5814</v>
+      </c>
+      <c r="C15" s="21">
+        <v>45976</v>
+      </c>
+      <c r="D15" s="19">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E15" s="22">
+        <v>0.85416666666666663</v>
+      </c>
       <c r="F15" s="34"/>
-      <c r="G15" s="16"/>
+      <c r="G15" s="16" t="s">
+        <v>67</v>
+      </c>
       <c r="H15" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.9999999999999982</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="31"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="22"/>
+      <c r="B16" s="13">
+        <v>5814</v>
+      </c>
+      <c r="C16" s="21">
+        <v>45976</v>
+      </c>
+      <c r="D16" s="19">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E16" s="22">
+        <v>0.85416666666666663</v>
+      </c>
       <c r="F16" s="34"/>
-      <c r="G16" s="16"/>
+      <c r="G16" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="H16" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.4999999999999982</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
@@ -9964,7 +10144,7 @@
       <c r="F80" s="29"/>
       <c r="H80" s="28">
         <f>SUM(H7:H79)</f>
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" ht="24.9" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10695,7 +10875,7 @@
   <dimension ref="A1:I783"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B2" sqref="B2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10713,7 +10893,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="94.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
@@ -10727,11 +10907,13 @@
       <c r="A2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="51"/>
+      <c r="B2" s="51" t="s">
+        <v>19</v>
+      </c>
       <c r="C2" s="52"/>
       <c r="D2" s="53"/>
       <c r="E2" s="45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="46"/>
       <c r="G2" s="46"/>
@@ -10740,7 +10922,9 @@
       <c r="A3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="54">
+        <v>301455814</v>
+      </c>
       <c r="C3" s="55"/>
       <c r="D3" s="56"/>
       <c r="E3" s="47"/>
@@ -10752,7 +10936,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C4" s="43"/>
       <c r="D4" s="44"/>
@@ -10762,10 +10946,10 @@
     </row>
     <row r="5" spans="1:9" ht="59.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="57" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" s="57" t="s">
-        <v>12</v>
       </c>
       <c r="C5" s="43"/>
       <c r="D5" s="44"/>
@@ -10793,7 +10977,7 @@
         <v>7</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>8</v>
